--- a/作業時間‗劉.xlsx
+++ b/作業時間‗劉.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\work\projects\back-office-source-develop-koshidaka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C76B5E-F55C-4965-9B6F-C988E6AC92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D638B9-EE46-4323-8B49-473945FE2B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>備考欄</t>
     <rPh sb="0" eb="3">
@@ -51,7 +51,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5H</t>
+    <t>4H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2+3H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2H</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -95,9 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -378,20 +389,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -402,11 +414,27 @@
       <c r="A2" s="1">
         <v>45271</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
